--- a/medicine/Psychotrope/Château_Les_Ormes_de_Pez/Château_Les_Ormes_de_Pez.xlsx
+++ b/medicine/Psychotrope/Château_Les_Ormes_de_Pez/Château_Les_Ormes_de_Pez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Les_Ormes_de_Pez</t>
+          <t>Château_Les_Ormes_de_Pez</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château les Ormes de Pez est un domaine viticole dans le Médoc, situé à Saint-Estèphe. Il a fait partie des crus bourgeois exceptionnels lors du classement de 2003. Le château est situé dans le hameau de Pez au nord de Saint-Estèphe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Les_Ormes_de_Pez</t>
+          <t>Château_Les_Ormes_de_Pez</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est la propriété de Jean-Michel Cazes, par ailleurs propriétaire du Grand cru classé Château Lynch-Bages. Le corps principal du château est de nos jours reconverti en chambres d'hôtes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Les_Ormes_de_Pez</t>
+          <t>Château_Les_Ormes_de_Pez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de 35 hectares se décompose en deux terroirs distincts : des parcelles graveleuses, sur des sols composés de quartz et de cailloux roulés où les cabernets s’épanouissent, et des parcelles plus argilo-sableuses, plus fraîches, qui conviennent au merlot
 Le terroir est un sol fait de graves légèrement argilo-sableuse, plantées de 70 % cabernet-sauvignon, 20 % merlot, 10 % cabernet-franc. Les vignes sont plantées en forte densité à 9000 pieds/ha pour un rendement de 40 hl/ha.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Les_Ormes_de_Pez</t>
+          <t>Château_Les_Ormes_de_Pez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
